--- a/ProductosML.xlsx
+++ b/ProductosML.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>Imagene</t>
   </si>
@@ -25,394 +25,400 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_703437-MLV50640456642_072022-W.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_694108-MLV52646972041_112022-W.webp</t>
   </si>
   <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_899731-MLV52578029070_112022-W.webp</t>
+  </si>
+  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_729268-MLV51822565154_102022-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_631329-MLV51214378723_082022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_679820-MLV53600063323_022023-W.webp</t>
+    <t>https://http2.mlstatic.com/D_NQ_NP_749342-MLV52839709907_122022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_896173-MLV52647162054_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_820694-MLV46612436251_072021-W.webp</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_949809-MLV52646333850_112022-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_899731-MLV52578029070_112022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_788471-MLV53456254344_012023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_751902-MLV48281947048_112021-W.webp</t>
+    <t>https://http2.mlstatic.com/D_NQ_NP_786420-MLV52646172274_112022-W.webp</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_706035-MLV52647349336_112022-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_674424-MLV48146414859_112021-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_786420-MLV52646172274_112022-W.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_740924-MLV46364342455_062021-W.webp</t>
   </si>
   <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_697897-MLV53991984624_022023-W.webp</t>
+  </si>
+  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_837670-MLV52087249826_102022-W.webp</t>
   </si>
   <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_988410-MLV52575152124_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_813972-MLV52540166258_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_737149-MLV46740233441_072021-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_995542-MLV51386548667_092022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_670868-MLV54293770042_032023-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_943885-MLV52511245916_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_938168-MLV50148273270_052022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_822292-MLV31247900642_062019-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_923348-MLV43631081198_092020-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_821575-MLV54296758768_032023-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_961448-MLV47602139592_092021-W.webp</t>
+  </si>
+  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_634409-MLV51812837298_102022-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_813972-MLV52540166258_112022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_878934-MLV53730295610_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_744323-MLV53495838737_012023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_957173-MLV53446951913_012023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_943885-MLV52511245916_112022-W.webp</t>
+    <t>https://http2.mlstatic.com/D_NQ_NP_743654-MLV52499602195_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_694894-MLV54293794226_032023-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_828222-MLV52087319012_102022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_603233-MLV51952163414_102022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_661707-MLV52499602042_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_628343-MLV51866801911_102022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_889186-MLV52645369703_112022-W.webp</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_934092-MLV31247868817_062019-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_614730-MLV49183142664_022022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_923348-MLV43631081198_092020-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_938168-MLV50148273270_052022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_822292-MLV31247900642_062019-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_961448-MLV47602139592_092021-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_828222-MLV52087319012_102022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_665910-MLV53379254311_012023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_718935-MLV53951052056_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_743654-MLV52499602195_112022-W.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_717170-MLV44042181850_112020-W.webp</t>
   </si>
   <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_963658-MLV52645822554_112022-W.webp</t>
+  </si>
+  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_804806-MLV52501191745_112022-W.webp</t>
   </si>
   <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_949464-MLV52501048780_112022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_700536-MLV54295593991_032023-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_692296-MLV43631028793_092020-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_882888-MLV52072821811_102022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_640341-MLV53646878479_022023-W.webp</t>
+  </si>
+  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_797152-MLV48617305297_122021-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_692296-MLV43631028793_092020-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_882888-MLV52072821811_102022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_700960-MLV51986232232_102022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_920012-MLV53950800913_022023-W.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_904458-MLV42184435048_062020-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_829907-MLV51904892947_102022-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_751342-MLV53567286069_022023-W.webp</t>
+    <t>https://http2.mlstatic.com/D_NQ_NP_848134-MLV51508257796_092022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_804684-MLV53761077696_022023-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_965049-MLV52021655850_102022-W.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_650379-MLV53585472075_022023-W.webp</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_776362-MLV52073775177_102022-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_717772-MLV53946340669_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_965049-MLV52021655850_102022-W.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_913321-MLV40870673326_022020-W.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_879495-MLV53834362140_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_979358-MLV53948275643_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_966956-MLV53887259974_022023-W.webp</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_661707-MLV52499602042_112022-W.webp</t>
-  </si>
-  <si>
-    <t>Pantalla De Tv Smart LG Modelo 32lv5500-dd</t>
-  </si>
-  <si>
     <t>Televisor Led 55 Pulgadas 4k Uhd Google 110v Tcl</t>
   </si>
   <si>
+    <t>Televisor Led 32 Pulgadas Hd Android 11 110v Tcl</t>
+  </si>
+  <si>
     <t>Televisor Led Smart Tv Tcl 32s60a 32 Hd 1080p Hdr Android.</t>
   </si>
   <si>
-    <t>Televisor 20 Pulgadas Basico Marca Rca Tienda Fisica</t>
-  </si>
-  <si>
-    <t>Televisor Smartv 32 Pulgadas Nuevo Somos Tienda Fisica</t>
+    <t>Televisor 20 Pulgadas Basico Tienda Fisica</t>
+  </si>
+  <si>
+    <t>Televisor Led 65 Pulgadas 4k Uhd Google 110v Tcl</t>
+  </si>
+  <si>
+    <t>Tv Box Smart 4k Tv Smart Android Internet</t>
   </si>
   <si>
     <t>Televisor Led 50 Pulgadas 4k Google 110v Tcl</t>
   </si>
   <si>
-    <t>Televisor Led 32 Pulgadas Hd Android 11 110v Tcl</t>
-  </si>
-  <si>
-    <t>Televisor Hisense 50 Pulgadas 4k Android Super Oferta Tienda</t>
-  </si>
-  <si>
-    <t>Tv Box Android 11.0 4k Ultra Hd</t>
+    <t>Televisor Led 43 4k Google 110v Tcl</t>
   </si>
   <si>
     <t>Televisor Led 85 Pulgadas 4k Uhd Google 110v Tcl</t>
   </si>
   <si>
-    <t>Televisor Aiwa 39'' Smart Tv Full Hd</t>
-  </si>
-  <si>
-    <t>Televisor Led 43 4k Google 110v Tcl</t>
-  </si>
-  <si>
     <t>Kit Inter Hd Tv Satelital Decodificador, Antena Y Control</t>
   </si>
   <si>
+    <t>Roku Premiere 4k Hdr Streaming Disney Hbo Netflix Hulu Prime</t>
+  </si>
+  <si>
     <t>Monitor Tv Led 24 PuLG Hdmi / Vga Premium Nuevo De Paquete</t>
   </si>
   <si>
+    <t>Televisor Led 32 Pulgadas No Smart Digital 110v Tcl</t>
+  </si>
+  <si>
+    <t>Tv Box Mxq-4k Ultra Hd Android Netflix Youtube Estilo Roku</t>
+  </si>
+  <si>
+    <t>Tv Box Mxq Pro 4k Tv Box 2gb Ram 16gb Rom Android 10.1</t>
+  </si>
+  <si>
+    <t>Televisor Aiwa Android Tv Smartv 32 Pulgadas</t>
+  </si>
+  <si>
+    <t>Televisor 32 Pulgadas Smart Tv LG Ai Thinq Led Hd</t>
+  </si>
+  <si>
+    <t>Televisor Smart Tv Tcl 43 Pulgadas Sistema Operativo Roku</t>
+  </si>
+  <si>
+    <t>Tv Box Pro Smart Tv Android 10, 4gbram/64gb Rom 4k</t>
+  </si>
+  <si>
+    <t>As-19h1g Repuesto Tcom Lcd Tv Samsung, Sony, LG Oferta X 2</t>
+  </si>
+  <si>
+    <t>Tiras Led Para Televisores LG 42 Pulgadas</t>
+  </si>
+  <si>
+    <t>Televisor Smart Tv 43 Pulgadas Samsung + Base + Obsequios</t>
+  </si>
+  <si>
+    <t>Antena De Tv Tipo V Compatible Con Uhf/vhf</t>
+  </si>
+  <si>
     <t>Televisor Led Smart 32 Pulgadas Android Certified Chiq 720p</t>
   </si>
   <si>
-    <t>Tv Box Mxq-4k Ultra Hd Android Netflix Youtube Estilo Roku</t>
-  </si>
-  <si>
-    <t>Promo Enamora2 Tv 43´´ 4k Google Tv + Tv 32´´ No Smart Tcl</t>
-  </si>
-  <si>
-    <t>Televisor Smartv 42 Pulgadas Clx Nuevo Somos Tienda Física</t>
-  </si>
-  <si>
-    <t>Televisor Smartv 42 Pulgada Modelo Nuevo En Tienda Física</t>
-  </si>
-  <si>
-    <t>Televisor Smart Tv Tcl 43 Pulgadas Sistema Operativo Roku</t>
+    <t>Control Sankey Lcd</t>
+  </si>
+  <si>
+    <t>Televisor Smart Tv 43 Pulgadas LG Nanocell 4k Thinq Ai</t>
+  </si>
+  <si>
+    <t>Monitor Led 19 Premium Hdmi Svga Tv Cristalview De Paquete</t>
+  </si>
+  <si>
+    <t>Televisor Smartv Aiwa 32 Pulgadas Android Tv</t>
+  </si>
+  <si>
+    <t>Control Premium Lcd</t>
+  </si>
+  <si>
+    <t>Fan7530 2 Unidades</t>
+  </si>
+  <si>
+    <t>Televisor Led 40 2k Android 11 110v Tcl</t>
   </si>
   <si>
     <t>As-19h1g Repuesto T-con Lcd Tv Samsung, Sony, LG</t>
   </si>
   <si>
-    <t>Tv Monitor Samsung 22 Series 3c301.</t>
-  </si>
-  <si>
-    <t>Tiras Led Para Televisores LG 42 Pulgadas</t>
-  </si>
-  <si>
-    <t>Tv Box Pro Smart Tv Android 10, 4gbram/64gb Rom 4k</t>
-  </si>
-  <si>
-    <t>As-19h1g Repuesto Tcom Lcd Tv Samsung, Sony, LG Oferta X 2</t>
-  </si>
-  <si>
-    <t>Antena De Tv Tipo V Compatible Con Uhf/vhf</t>
-  </si>
-  <si>
-    <t>Monitor Led 19 Premium Hdmi Svga Tv Cristalview De Paquete</t>
-  </si>
-  <si>
-    <t>Televisor Led Daewoo 32 Pulgada Excelente Calidad Tienda</t>
-  </si>
-  <si>
-    <t>Televisor Smart Tv Samsung 43 Pulgadas Led 4k Uhd Hdr</t>
-  </si>
-  <si>
-    <t>Control Sankey Lcd</t>
-  </si>
-  <si>
     <t>Kit Smart Tv: Google Home Mini (color Carbón) + Chromecast 3</t>
   </si>
   <si>
+    <t>Televisor Led 43 2k Android 11 110v Tcl</t>
+  </si>
+  <si>
     <t>Control Tv Gplus Modelo: Gp-019 Todas Las Pulgadas</t>
   </si>
   <si>
+    <t>Control Remoto Tv Gplus 32t41 Y 42t41</t>
+  </si>
+  <si>
+    <t>Televisor Smart Tv Samsung 32 Pulgadas Obsequio Tienda Fisic</t>
+  </si>
+  <si>
+    <t>Tiras Led Para Televisores LG 42 Pulgadas Ln / La Serie</t>
+  </si>
+  <si>
+    <t>Control Tv Premium Lcd</t>
+  </si>
+  <si>
+    <t>Televisor Jvc Sistema Android 42 Pulgada Somos Tienda Física</t>
+  </si>
+  <si>
     <t>Televisor 32 Syon Smart Tv Led Android 9.0 Usb Hdmi</t>
   </si>
   <si>
-    <t>Tiras Led Para Televisores LG 42 Pulgadas Ln / La Serie</t>
-  </si>
-  <si>
-    <t>Control Tv Premium Lcd</t>
-  </si>
-  <si>
-    <t>Smart Tv Box S912/2/16 Android Wifi Netflix Chrome Youtube</t>
-  </si>
-  <si>
-    <t>Televisor Smart Tv Samsung Led Hd 32 Pulgadas</t>
-  </si>
-  <si>
     <t>1 Barra Led Repuesto Television 500h1-me1-tlem9 V500h1j</t>
   </si>
   <si>
-    <t>Smart Tv - Chiq - 32 - 720p - Android Tv Certificado</t>
-  </si>
-  <si>
-    <t>Televisor Digital Tda Pantalla Lcd 3.5 PuLG Tuner Multimedia</t>
+    <t>32 Rca Led Basico</t>
+  </si>
+  <si>
+    <t>Televisor Full Hd Smartv 42 Pulgada Jvc Nuevo Tienda Física</t>
+  </si>
+  <si>
+    <t>Control Tv Soneview Sv-325, Sv-425, Led-2401, Lcd2600</t>
+  </si>
+  <si>
+    <t>Tv De 20 Syon</t>
   </si>
   <si>
     <t>Control Remoto Tv Cyberlux Lcd Cxtlcd-42v88 / Cxtlcd32cx1</t>
   </si>
   <si>
-    <t>Televisor Smart Tv 32 Samsung Fullhd Tienda Física Garantía</t>
-  </si>
-  <si>
-    <t>Control Tv Soneview Sv-325, Sv-425, Led-2401, Lcd2600</t>
-  </si>
-  <si>
     <t>Control Tv Sankey Lcd</t>
   </si>
   <si>
-    <t>Tv Samsung 39 Pulgadas Totalmente Nuevos</t>
-  </si>
-  <si>
-    <t>Tv Smar Deawoo 40 Pulgadas Nuevos</t>
-  </si>
-  <si>
-    <t>Tv Smart Hyundai De 32 Pulgadas Nuevos</t>
-  </si>
-  <si>
-    <t>Control Premium Lcd</t>
-  </si>
-  <si>
-    <t>50$</t>
-  </si>
-  <si>
     <t>424$</t>
   </si>
   <si>
+    <t>183$</t>
+  </si>
+  <si>
     <t>229$</t>
   </si>
   <si>
     <t>120$</t>
   </si>
   <si>
-    <t>150$</t>
+    <t>690$</t>
+  </si>
+  <si>
+    <t>35$</t>
   </si>
   <si>
     <t>378$</t>
   </si>
   <si>
-    <t>183$</t>
-  </si>
-  <si>
-    <t>380$</t>
-  </si>
-  <si>
-    <t>35$</t>
+    <t>309$</t>
   </si>
   <si>
     <t>1.945$</t>
   </si>
   <si>
-    <t>295$</t>
-  </si>
-  <si>
-    <t>309$</t>
-  </si>
-  <si>
     <t>100$</t>
   </si>
   <si>
+    <t>45$</t>
+  </si>
+  <si>
     <t>195$</t>
   </si>
   <si>
+    <t>145$</t>
+  </si>
+  <si>
+    <t>49$</t>
+  </si>
+  <si>
+    <t>30$</t>
+  </si>
+  <si>
+    <t>167$</t>
+  </si>
+  <si>
+    <t>85$</t>
+  </si>
+  <si>
+    <t>4$</t>
+  </si>
+  <si>
+    <t>10$</t>
+  </si>
+  <si>
+    <t>131$</t>
+  </si>
+  <si>
+    <t>2$</t>
+  </si>
+  <si>
     <t>215$</t>
   </si>
   <si>
-    <t>49$</t>
-  </si>
-  <si>
-    <t>379$</t>
-  </si>
-  <si>
-    <t>240$</t>
-  </si>
-  <si>
-    <t>4$</t>
+    <t>130$</t>
+  </si>
+  <si>
+    <t>135$</t>
+  </si>
+  <si>
+    <t>160$</t>
+  </si>
+  <si>
+    <t>5$</t>
+  </si>
+  <si>
+    <t>275$</t>
+  </si>
+  <si>
+    <t>63$</t>
+  </si>
+  <si>
+    <t>286$</t>
+  </si>
+  <si>
+    <t>101$</t>
+  </si>
+  <si>
+    <t>11$</t>
   </si>
   <si>
     <t>250$</t>
   </si>
   <si>
-    <t>10$</t>
-  </si>
-  <si>
-    <t>85$</t>
-  </si>
-  <si>
-    <t>2$</t>
-  </si>
-  <si>
-    <t>135$</t>
-  </si>
-  <si>
-    <t>130$</t>
-  </si>
-  <si>
-    <t>63$</t>
-  </si>
-  <si>
     <t>210$</t>
   </si>
   <si>
-    <t>11$</t>
-  </si>
-  <si>
-    <t>79$</t>
-  </si>
-  <si>
     <t>32$</t>
   </si>
   <si>
-    <t>174$</t>
-  </si>
-  <si>
-    <t>25$</t>
-  </si>
-  <si>
-    <t>160$</t>
-  </si>
-  <si>
-    <t>140$</t>
+    <t>89$</t>
+  </si>
+  <si>
+    <t>80$</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1014,7 +1020,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1025,7 +1031,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1036,7 +1042,7 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1124,7 +1130,7 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1135,7 +1141,7 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1146,7 +1152,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1157,7 +1163,7 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1168,7 +1174,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1179,7 +1185,7 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1190,7 +1196,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1201,7 +1207,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1212,7 +1218,7 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1223,7 +1229,7 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1234,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1245,7 +1251,7 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1267,7 +1273,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1278,7 +1284,7 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1289,7 +1295,7 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1300,7 +1306,7 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1311,7 +1317,7 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1322,7 +1328,7 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1333,7 +1339,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1344,7 +1350,7 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
